--- a/docs/del-StandardForm.xlsx
+++ b/docs/del-StandardForm.xlsx
@@ -2694,7 +2694,7 @@
         <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>44</v>
@@ -2810,7 +2810,7 @@
         <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>44</v>
@@ -3270,7 +3270,7 @@
         <v>42</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>44</v>
@@ -3614,7 +3614,7 @@
         <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>44</v>
@@ -3958,7 +3958,7 @@
         <v>42</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>44</v>
@@ -4186,7 +4186,7 @@
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>44</v>
@@ -4302,7 +4302,7 @@
         <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>44</v>
@@ -4416,7 +4416,7 @@
         <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>44</v>
@@ -4530,7 +4530,7 @@
         <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>44</v>

--- a/docs/del-StandardForm.xlsx
+++ b/docs/del-StandardForm.xlsx
@@ -3270,7 +3270,7 @@
         <v>42</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>44</v>

--- a/docs/del-StandardForm.xlsx
+++ b/docs/del-StandardForm.xlsx
@@ -156,7 +156,7 @@
     <t>del-StandardForm</t>
   </si>
   <si>
-    <t>A definition of an standard form.</t>
+    <t>A definition of an standard form and all of its contents.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}

--- a/docs/del-StandardForm.xlsx
+++ b/docs/del-StandardForm.xlsx
@@ -2691,10 +2691,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>44</v>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>43</v>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>50</v>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>50</v>

--- a/docs/del-StandardForm.xlsx
+++ b/docs/del-StandardForm.xlsx
@@ -5101,7 +5101,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>43</v>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>50</v>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>50</v>

--- a/docs/del-StandardForm.xlsx
+++ b/docs/del-StandardForm.xlsx
@@ -5215,7 +5215,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>50</v>

--- a/docs/del-StandardForm.xlsx
+++ b/docs/del-StandardForm.xlsx
@@ -156,7 +156,7 @@
     <t>del-StandardForm</t>
   </si>
   <si>
-    <t>A definition of an standard form and all of its contents.</t>
+    <t>A DEL standard form and all of its contents. This includes sections, questions, and available question responses.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -3725,7 +3725,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>50</v>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>50</v>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>50</v>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>43</v>

--- a/docs/del-StandardForm.xlsx
+++ b/docs/del-StandardForm.xlsx
@@ -2807,10 +2807,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>44</v>

--- a/docs/del-StandardForm.xlsx
+++ b/docs/del-StandardForm.xlsx
@@ -153,14 +153,14 @@
     <t/>
   </si>
   <si>
-    <t>del-StandardForm</t>
+    <t>Standard Form</t>
   </si>
   <si>
     <t>A DEL standard form and all of its contents. This includes sections, questions, and available question responses.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}que-2:The link ids for groups and questions must be unique within the questionnaire {descendants().linkId.isDistinct()}que-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}que-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}que-2:The link ids for groups and questions must be unique within the questionnaire {descendants().linkId.isDistinct()}</t>
   </si>
   <si>
     <t>Observation[moodCode=DEF]</t>
@@ -175,7 +175,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -207,6 +207,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>Questionnaire.implicitRules</t>
   </si>
   <si>
@@ -329,6 +333,10 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Questionnaire.modifierExtension</t>
   </si>
   <si>
@@ -400,10 +408,6 @@
     <t>Questionnaire.version</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Business version of the questionnaire</t>
   </si>
   <si>
@@ -499,7 +503,7 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
   </si>
   <si>
     <t>Definition.status</t>
@@ -548,7 +552,7 @@
     <t>One of the resource types defined as part of this version of FHIR.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Definition.subject[x]</t>
@@ -858,7 +862,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-que-9:Read-only can't be specified for "display" items {type!='display' or readOnly.empty()}que-8:Initial values can't be specified for groups or display items {(type!='group' and type!='display') or initial.empty()}que-6:Required and repeat aren't permitted for display items {type!='display' or (required.empty() and repeats.empty())}que-5:Only 'choice' and 'open-choice' items can have answerValueSet {(type ='choice' or type = 'open-choice' or type = 'decimal' or type = 'integer' or type = 'date' or type = 'dateTime' or type = 'time' or type = 'string' or type = 'quantity') or (answerValueSet.empty() and answerOption.empty())}que-4:A question cannot have both answerOption and answerValueSet {answerOption.empty() or answerValueSet.empty()}que-3:Display items cannot have a "code" asserted {type!='display' or code.empty()}que-10:Maximum length can only be declared for simple question types {(type in ('boolean' | 'decimal' | 'integer' | 'string' | 'text' | 'url' | 'open-choice')) or maxLength.empty()}que-1:Group items must have nested items, display items cannot have nested items {(type='group' implies item.empty().not()) and (type.trace('type')='display' implies item.trace('item').empty())}que-13:Can only have multiple initial values for repeating items {repeats=true or initial.count() &lt;= 1}que-11:If one or more answerOption is present, initial[x] must be missing {answerOption.empty() or initial.empty()}que-12:If there are more than one enableWhen, enableBehavior must be specified {enableWhen.count() &gt; 2 implies enableBehavior.exists()}</t>
+que-1:Group items must have nested items, display items cannot have nested items {(type='group' implies item.empty().not()) and (type.trace('type')='display' implies item.trace('item').empty())}que-3:Display items cannot have a "code" asserted {type!='display' or code.empty()}que-4:A question cannot have both answerOption and answerValueSet {answerOption.empty() or answerValueSet.empty()}que-5:Only 'choice' and 'open-choice' items can have answerValueSet {(type ='choice' or type = 'open-choice' or type = 'decimal' or type = 'integer' or type = 'date' or type = 'dateTime' or type = 'time' or type = 'string' or type = 'quantity') or (answerValueSet.empty() and answerOption.empty())}que-6:Required and repeat aren't permitted for display items {type!='display' or (required.empty() and repeats.empty())}que-8:Initial values can't be specified for groups or display items {(type!='group' and type!='display') or initial.empty()}que-9:Read-only can't be specified for "display" items {type!='display' or readOnly.empty()}que-10:Maximum length can only be declared for simple question types {(type in ('boolean' | 'decimal' | 'integer' | 'string' | 'text' | 'url' | 'open-choice')) or maxLength.empty()}que-11:If one or more answerOption is present, initial[x] must be missing {answerOption.empty() or initial.empty()}que-12:If there are more than one enableWhen, enableBehavior must be specified {enableWhen.count() &gt; 2 implies enableBehavior.exists()}que-13:Can only have multiple initial values for repeating items {repeats=true or initial.count() &lt;= 1}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=OBS, moodCode=DEF]</t>
@@ -1015,7 +1019,7 @@
     <t>Distinguishes groups from questions and display text and indicates data type for questions.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/item-type|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/item-type|4.0.1</t>
   </si>
   <si>
     <t>N/A - MIF rather than RIM level</t>
@@ -1073,7 +1077,7 @@
     <t>The criteria by which a question is enabled.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/questionnaire-enable-operator|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/questionnaire-enable-operator|4.0.1</t>
   </si>
   <si>
     <t>Questionnaire.item.enableWhen.answer[x]</t>
@@ -1111,7 +1115,7 @@
     <t>This element must be specified if more than one enableWhen value is provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/questionnaire-enable-behavior|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/questionnaire-enable-behavior|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">que-12
@@ -1226,10 +1230,6 @@
   </si>
   <si>
     <t>This element can be used when the value set machinery of answerValueSet is deemed too cumbersome or when there's a need to capture possible answers that are not codes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>Questionnaire.item.answerOption.id</t>
@@ -1977,7 +1977,7 @@
         <v>44</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>44</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2020,16 +2020,16 @@
         <v>51</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2079,7 +2079,7 @@
         <v>44</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>42</v>
@@ -2091,7 +2091,7 @@
         <v>44</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>44</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2134,16 +2134,16 @@
         <v>44</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2169,13 +2169,13 @@
         <v>44</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>44</v>
@@ -2193,7 +2193,7 @@
         <v>44</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>42</v>
@@ -2205,7 +2205,7 @@
         <v>44</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>44</v>
@@ -2225,11 +2225,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2248,16 +2248,16 @@
         <v>44</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2307,7 +2307,7 @@
         <v>44</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>42</v>
@@ -2319,13 +2319,13 @@
         <v>44</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>44</v>
@@ -2339,11 +2339,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2362,16 +2362,16 @@
         <v>44</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2421,7 +2421,7 @@
         <v>44</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>42</v>
@@ -2439,7 +2439,7 @@
         <v>44</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>44</v>
@@ -2453,11 +2453,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2476,16 +2476,16 @@
         <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2535,7 +2535,7 @@
         <v>44</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>42</v>
@@ -2547,13 +2547,13 @@
         <v>44</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>44</v>
@@ -2567,11 +2567,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2590,19 +2590,19 @@
         <v>44</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>44</v>
@@ -2651,7 +2651,7 @@
         <v>44</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2663,13 +2663,13 @@
         <v>44</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>44</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2706,19 +2706,19 @@
         <v>51</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>44</v>
@@ -2767,7 +2767,7 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2779,16 +2779,16 @@
         <v>44</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>44</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2822,19 +2822,19 @@
         <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>44</v>
@@ -2883,7 +2883,7 @@
         <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2895,19 +2895,19 @@
         <v>44</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>44</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2938,16 +2938,16 @@
         <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2997,7 +2997,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -3009,16 +3009,16 @@
         <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>44</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3052,19 +3052,19 @@
         <v>51</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>44</v>
@@ -3113,7 +3113,7 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -3122,16 +3122,16 @@
         <v>50</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>44</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3168,16 +3168,16 @@
         <v>51</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3227,7 +3227,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3239,13 +3239,13 @@
         <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>44</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3282,17 +3282,17 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>44</v>
@@ -3341,7 +3341,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3353,13 +3353,13 @@
         <v>44</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>44</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3396,16 +3396,16 @@
         <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3431,13 +3431,13 @@
         <v>44</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>44</v>
@@ -3455,7 +3455,7 @@
         <v>44</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>50</v>
@@ -3467,16 +3467,16 @@
         <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>44</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3510,19 +3510,19 @@
         <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>44</v>
@@ -3571,7 +3571,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3583,16 +3583,16 @@
         <v>44</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>44</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3626,16 +3626,16 @@
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3661,13 +3661,13 @@
         <v>44</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>44</v>
@@ -3685,7 +3685,7 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3697,13 +3697,13 @@
         <v>44</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>44</v>
@@ -3717,11 +3717,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3740,16 +3740,16 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3799,7 +3799,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3811,16 +3811,16 @@
         <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>44</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3854,19 +3854,19 @@
         <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>44</v>
@@ -3915,7 +3915,7 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3927,16 +3927,16 @@
         <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>44</v>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3970,16 +3970,16 @@
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4029,7 +4029,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4041,13 +4041,13 @@
         <v>44</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>44</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4084,16 +4084,16 @@
         <v>44</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4143,7 +4143,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4155,13 +4155,13 @@
         <v>44</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>44</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4198,19 +4198,19 @@
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>44</v>
@@ -4259,7 +4259,7 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4271,13 +4271,13 @@
         <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>44</v>
@@ -4291,7 +4291,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4314,16 +4314,16 @@
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4349,13 +4349,13 @@
         <v>44</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>44</v>
@@ -4373,7 +4373,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4385,13 +4385,13 @@
         <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>44</v>
@@ -4405,7 +4405,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4428,16 +4428,16 @@
         <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4487,7 +4487,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4499,19 +4499,19 @@
         <v>44</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>44</v>
@@ -4519,11 +4519,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4542,17 +4542,17 @@
         <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>44</v>
@@ -4601,7 +4601,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4613,19 +4613,19 @@
         <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>44</v>
@@ -4633,7 +4633,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4656,16 +4656,16 @@
         <v>44</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4715,7 +4715,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4727,19 +4727,19 @@
         <v>44</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>44</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4770,19 +4770,19 @@
         <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>44</v>
@@ -4831,7 +4831,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4843,19 +4843,19 @@
         <v>44</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4886,19 +4886,19 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>44</v>
@@ -4947,7 +4947,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4959,19 +4959,19 @@
         <v>44</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5002,17 +5002,17 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>44</v>
@@ -5037,13 +5037,13 @@
         <v>44</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
@@ -5061,7 +5061,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5073,13 +5073,13 @@
         <v>44</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>44</v>
@@ -5093,7 +5093,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5116,16 +5116,16 @@
         <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5175,7 +5175,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5184,16 +5184,16 @@
         <v>43</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>44</v>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5230,13 +5230,13 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5287,7 +5287,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5305,7 +5305,7 @@
         <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>44</v>
@@ -5319,11 +5319,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5342,16 +5342,16 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5401,7 +5401,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5413,13 +5413,13 @@
         <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>44</v>
@@ -5433,11 +5433,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5456,19 +5456,19 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -5517,7 +5517,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5529,13 +5529,13 @@
         <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
@@ -5549,7 +5549,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5572,19 +5572,19 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -5633,7 +5633,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>50</v>
@@ -5645,13 +5645,13 @@
         <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5688,19 +5688,19 @@
         <v>44</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -5749,7 +5749,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5761,13 +5761,13 @@
         <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>44</v>
@@ -5781,7 +5781,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5804,19 +5804,19 @@
         <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -5841,13 +5841,13 @@
         <v>44</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>44</v>
@@ -5865,7 +5865,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5874,16 +5874,16 @@
         <v>43</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>44</v>
@@ -5897,11 +5897,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5920,19 +5920,19 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -5981,7 +5981,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5993,13 +5993,13 @@
         <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>44</v>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6036,16 +6036,16 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6095,7 +6095,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6107,13 +6107,13 @@
         <v>44</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>44</v>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6150,19 +6150,19 @@
         <v>44</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>44</v>
@@ -6187,13 +6187,13 @@
         <v>44</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>44</v>
@@ -6211,7 +6211,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>50</v>
@@ -6223,13 +6223,13 @@
         <v>44</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>44</v>
@@ -6243,7 +6243,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6266,19 +6266,19 @@
         <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>44</v>
@@ -6327,7 +6327,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6339,13 +6339,13 @@
         <v>44</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>44</v>
@@ -6359,7 +6359,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6382,13 +6382,13 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6439,7 +6439,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6457,7 +6457,7 @@
         <v>44</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>44</v>
@@ -6471,11 +6471,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6494,16 +6494,16 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6553,7 +6553,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6565,13 +6565,13 @@
         <v>44</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>44</v>
@@ -6585,11 +6585,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6608,19 +6608,19 @@
         <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6669,7 +6669,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6681,13 +6681,13 @@
         <v>44</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>44</v>
@@ -6701,7 +6701,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6724,16 +6724,16 @@
         <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6783,7 +6783,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>50</v>
@@ -6795,13 +6795,13 @@
         <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
@@ -6815,7 +6815,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6838,13 +6838,13 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6871,13 +6871,13 @@
         <v>44</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>44</v>
@@ -6895,7 +6895,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>50</v>
@@ -6907,13 +6907,13 @@
         <v>44</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
@@ -6927,7 +6927,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6950,13 +6950,13 @@
         <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6983,13 +6983,13 @@
         <v>44</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>44</v>
@@ -7007,7 +7007,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>50</v>
@@ -7016,16 +7016,16 @@
         <v>50</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>44</v>
@@ -7039,7 +7039,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7062,16 +7062,16 @@
         <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7097,13 +7097,13 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
@@ -7121,7 +7121,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7130,16 +7130,16 @@
         <v>50</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>44</v>
@@ -7153,7 +7153,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7176,23 +7176,23 @@
         <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q50" t="s" s="2">
         <v>44</v>
@@ -7237,7 +7237,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7246,16 +7246,16 @@
         <v>50</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>44</v>
@@ -7269,7 +7269,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7292,88 +7292,88 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="Q51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE51" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="P51" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="Q51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE51" t="s" s="2">
+      <c r="AF51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH51" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AF51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="AI51" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>44</v>
@@ -7387,7 +7387,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7410,19 +7410,19 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>44</v>
@@ -7471,7 +7471,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7480,16 +7480,16 @@
         <v>50</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>44</v>
@@ -7503,7 +7503,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7526,16 +7526,16 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7585,7 +7585,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7594,16 +7594,16 @@
         <v>50</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>44</v>
@@ -7612,12 +7612,12 @@
         <v>44</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7640,16 +7640,16 @@
         <v>44</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7699,7 +7699,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7708,16 +7708,16 @@
         <v>50</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>44</v>
@@ -7731,7 +7731,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7754,16 +7754,16 @@
         <v>44</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7813,7 +7813,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7822,16 +7822,16 @@
         <v>43</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>386</v>
+        <v>62</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>44</v>
@@ -7868,13 +7868,13 @@
         <v>44</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7925,7 +7925,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7943,7 +7943,7 @@
         <v>44</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>44</v>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7980,16 +7980,16 @@
         <v>44</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8039,7 +8039,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8051,13 +8051,13 @@
         <v>44</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>44</v>
@@ -8075,7 +8075,7 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8094,19 +8094,19 @@
         <v>51</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>44</v>
@@ -8155,7 +8155,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8167,13 +8167,13 @@
         <v>44</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>44</v>
@@ -8245,13 +8245,13 @@
         <v>44</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>44</v>
@@ -8281,13 +8281,13 @@
         <v>44</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>44</v>
@@ -8324,7 +8324,7 @@
         <v>44</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>396</v>
@@ -8397,13 +8397,13 @@
         <v>44</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>44</v>
@@ -8440,7 +8440,7 @@
         <v>44</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>401</v>
@@ -8513,13 +8513,13 @@
         <v>405</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>386</v>
+        <v>62</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>44</v>
@@ -8556,13 +8556,13 @@
         <v>44</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8613,7 +8613,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8631,7 +8631,7 @@
         <v>44</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>44</v>
@@ -8649,7 +8649,7 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8668,16 +8668,16 @@
         <v>44</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8727,7 +8727,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8739,13 +8739,13 @@
         <v>44</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>44</v>
@@ -8763,7 +8763,7 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8782,19 +8782,19 @@
         <v>51</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>44</v>
@@ -8843,7 +8843,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -8855,13 +8855,13 @@
         <v>44</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>44</v>
@@ -8933,13 +8933,13 @@
         <v>44</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>44</v>
@@ -8969,13 +8969,13 @@
         <v>44</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>44</v>
@@ -9085,7 +9085,7 @@
         <v>419</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>44</v>
